--- a/data/mall-cloud-alibaba/cms-server_structure.xlsx
+++ b/data/mall-cloud-alibaba/cms-server_structure.xlsx
@@ -306,19 +306,19 @@
     <t>cmsPrefrenceAreaProductRelationDao</t>
   </si>
   <si>
+    <t>subjectMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.CmsSubjectMapper</t>
+  </si>
+  <si>
+    <t>subjectProductRelationDao</t>
+  </si>
+  <si>
     <t>subjectProductRelationMapper</t>
   </si>
   <si>
     <t>com.mtcarpenter.mall.mapper.CmsSubjectProductRelationMapper</t>
-  </si>
-  <si>
-    <t>subjectMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.CmsSubjectMapper</t>
-  </si>
-  <si>
-    <t>subjectProductRelationDao</t>
   </si>
   <si>
     <t>cmsPrefrenceAreaService</t>
@@ -4290,7 +4290,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>97</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -4298,13 +4298,13 @@
         <v>57</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>12</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
